--- a/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T13:30:27+00:00</t>
+    <t>2025-01-31T15:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -951,7 +951,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://interopsante.org/fhir/CodeSystem/fr-v2-0203</t>
+    <t>https://hl7.fr/ig/fhir/core/CodeSystem/fr-core-cs-v2-0203</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T15:48:31+00:00</t>
+    <t>2025-01-31T16:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:36:09+00:00</t>
+    <t>2025-01-31T16:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:52:44+00:00</t>
+    <t>2025-02-03T13:34:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T13:34:22+00:00</t>
+    <t>2025-02-03T13:56:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T13:56:30+00:00</t>
+    <t>2025-02-03T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T16:39:55+00:00</t>
+    <t>2025-02-03T16:55:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T16:55:26+00:00</t>
+    <t>2025-02-04T08:34:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T08:34:23+00:00</t>
+    <t>2025-02-04T08:52:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T08:52:18+00:00</t>
+    <t>2025-02-04T09:36:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:36:46+00:00</t>
+    <t>2025-02-04T10:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3939" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3977" uniqueCount="623">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T10:02:41+00:00</t>
+    <t>2025-02-04T10:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -463,6 +463,12 @@
   </si>
   <si>
     <t>fr-canonical</t>
+  </si>
+  <si>
+    <t>Appointment.meta.profile:sas-appointment</t>
+  </si>
+  <si>
+    <t>sas-appointment</t>
   </si>
   <si>
     <t>Appointment.meta.security</t>
@@ -2244,7 +2250,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO106"/>
+  <dimension ref="A1:AO107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3591,9 +3597,11 @@
         <v>145</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3602,7 +3610,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -3614,16 +3622,16 @@
         <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3634,7 +3642,7 @@
         <v>77</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>77</v>
@@ -3649,13 +3657,13 @@
         <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>77</v>
@@ -3673,7 +3681,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3705,10 +3713,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3731,16 +3739,16 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3766,13 +3774,13 @@
         <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>77</v>
@@ -3790,7 +3798,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3822,10 +3830,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3836,28 +3844,28 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3883,13 +3891,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -3907,13 +3915,13 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>77</v>
@@ -3939,10 +3947,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3959,22 +3967,22 @@
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4000,13 +4008,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -4024,7 +4032,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -4056,14 +4064,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4082,16 +4090,16 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4117,13 +4125,13 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -4141,7 +4149,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -4159,7 +4167,7 @@
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -4173,21 +4181,21 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -4199,16 +4207,16 @@
         <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4258,25 +4266,25 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -4290,18 +4298,18 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>79</v>
@@ -4316,15 +4324,17 @@
         <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -4361,17 +4371,19 @@
         <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AC18" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4383,13 +4395,13 @@
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -4403,14 +4415,12 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>77</v>
       </c>
@@ -4419,7 +4429,7 @@
         <v>88</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -4431,13 +4441,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4476,19 +4486,17 @@
         <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4497,7 +4505,7 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>117</v>
@@ -4520,18 +4528,20 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>88</v>
@@ -4546,13 +4556,13 @@
         <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>104</v>
+        <v>202</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4603,25 +4613,25 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -4649,7 +4659,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -4661,13 +4671,13 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
+        <v>103</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4706,37 +4716,37 @@
         <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4761,10 +4771,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -4776,24 +4786,22 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>77</v>
@@ -4823,37 +4831,37 @@
         <v>77</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>212</v>
+        <v>116</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4867,10 +4875,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4893,22 +4901,24 @@
         <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -4938,20 +4948,22 @@
         <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AC23" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>88</v>
@@ -4960,13 +4972,13 @@
         <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4980,14 +4992,12 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
         <v>77</v>
       </c>
@@ -5008,13 +5018,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5053,19 +5063,17 @@
         <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -5083,7 +5091,7 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -5097,18 +5105,20 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="C25" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="B25" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>88</v>
@@ -5123,13 +5133,13 @@
         <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>102</v>
+        <v>225</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>103</v>
+        <v>218</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>104</v>
+        <v>219</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5180,7 +5190,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>105</v>
+        <v>222</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -5192,13 +5202,13 @@
         <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -5219,14 +5229,14 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -5238,17 +5248,15 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -5285,37 +5293,37 @@
         <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -5336,14 +5344,14 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
@@ -5352,19 +5360,19 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>231</v>
+        <v>111</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>232</v>
+        <v>112</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5402,37 +5410,37 @@
         <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>233</v>
+        <v>116</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -5446,10 +5454,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5472,16 +5480,16 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5507,13 +5515,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -5531,7 +5539,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5540,7 +5548,7 @@
         <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>100</v>
@@ -5549,7 +5557,7 @@
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -5563,10 +5571,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5574,7 +5582,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>88</v>
@@ -5589,16 +5597,16 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>245</v>
+        <v>130</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5624,13 +5632,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -5648,7 +5656,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5657,7 +5665,7 @@
         <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>100</v>
@@ -5666,7 +5674,7 @@
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -5675,15 +5683,15 @@
         <v>77</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5691,7 +5699,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>88</v>
@@ -5703,18 +5711,20 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>102</v>
+        <v>247</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>103</v>
+        <v>248</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5763,7 +5773,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>105</v>
+        <v>251</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5772,16 +5782,16 @@
         <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>106</v>
+        <v>252</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -5790,7 +5800,7 @@
         <v>77</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31">
@@ -5802,14 +5812,14 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -5821,17 +5831,15 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5868,37 +5876,37 @@
         <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -5919,39 +5927,37 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>258</v>
+        <v>110</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>259</v>
+        <v>111</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5975,49 +5981,49 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>265</v>
+        <v>116</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>266</v>
+        <v>193</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -6026,15 +6032,15 @@
         <v>77</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6042,7 +6048,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>88</v>
@@ -6051,25 +6057,25 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -6094,13 +6100,13 @@
         <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>150</v>
+        <v>264</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>77</v>
@@ -6118,7 +6124,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -6127,7 +6133,7 @@
         <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>100</v>
@@ -6136,7 +6142,7 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -6145,15 +6151,15 @@
         <v>77</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>277</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6161,7 +6167,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>88</v>
@@ -6173,19 +6179,23 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>102</v>
+        <v>271</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>103</v>
+        <v>272</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -6209,13 +6219,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -6233,7 +6243,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>105</v>
+        <v>278</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6242,16 +6252,16 @@
         <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>106</v>
+        <v>268</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -6260,7 +6270,7 @@
         <v>77</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35">
@@ -6272,14 +6282,14 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -6291,17 +6301,15 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -6338,37 +6346,37 @@
         <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -6389,14 +6397,14 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -6405,23 +6413,21 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>284</v>
+        <v>110</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>285</v>
+        <v>111</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
       </c>
@@ -6457,19 +6463,19 @@
         <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>288</v>
+        <v>116</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6478,16 +6484,16 @@
         <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>289</v>
+        <v>193</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -6496,15 +6502,15 @@
         <v>77</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6512,7 +6518,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>88</v>
@@ -6524,19 +6530,23 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>103</v>
+        <v>286</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -6584,25 +6594,25 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>105</v>
+        <v>290</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>106</v>
+        <v>291</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -6611,7 +6621,7 @@
         <v>77</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>77</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38">
@@ -6623,14 +6633,14 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -6642,17 +6652,15 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -6689,37 +6697,37 @@
         <v>77</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -6740,14 +6748,14 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -6756,23 +6764,21 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>297</v>
+        <v>110</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>298</v>
+        <v>111</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6781,7 +6787,7 @@
         <v>77</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>77</v>
@@ -6808,37 +6814,37 @@
         <v>77</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>302</v>
+        <v>116</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>303</v>
+        <v>193</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -6847,15 +6853,15 @@
         <v>77</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>304</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6878,18 +6884,20 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6898,7 +6906,7 @@
         <v>77</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>77</v>
@@ -6937,7 +6945,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6946,7 +6954,7 @@
         <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>100</v>
@@ -6955,7 +6963,7 @@
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6964,15 +6972,15 @@
         <v>77</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6980,7 +6988,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>88</v>
@@ -6995,20 +7003,18 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
       </c>
@@ -7056,7 +7062,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -7065,7 +7071,7 @@
         <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>100</v>
@@ -7074,7 +7080,7 @@
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -7083,15 +7089,15 @@
         <v>77</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7099,7 +7105,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>88</v>
@@ -7114,19 +7120,19 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -7175,7 +7181,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7184,7 +7190,7 @@
         <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>100</v>
@@ -7193,7 +7199,7 @@
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -7202,15 +7208,15 @@
         <v>77</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7233,19 +7239,19 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>332</v>
+        <v>102</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -7294,7 +7300,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7303,7 +7309,7 @@
         <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>100</v>
@@ -7312,7 +7318,7 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -7321,15 +7327,15 @@
         <v>77</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7352,19 +7358,19 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>102</v>
+        <v>334</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -7413,7 +7419,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7422,7 +7428,7 @@
         <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>100</v>
@@ -7431,7 +7437,7 @@
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -7440,15 +7446,15 @@
         <v>77</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7456,7 +7462,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>88</v>
@@ -7471,19 +7477,19 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -7496,7 +7502,7 @@
         <v>77</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>77</v>
@@ -7532,7 +7538,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7541,7 +7547,7 @@
         <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>100</v>
@@ -7550,7 +7556,7 @@
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
@@ -7559,15 +7565,15 @@
         <v>77</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7590,18 +7596,20 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7613,7 +7621,7 @@
         <v>77</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>77</v>
@@ -7649,7 +7657,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7658,7 +7666,7 @@
         <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>100</v>
@@ -7667,7 +7675,7 @@
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -7676,15 +7684,15 @@
         <v>77</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7692,7 +7700,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>88</v>
@@ -7707,16 +7715,16 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>370</v>
+        <v>102</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7730,7 +7738,7 @@
         <v>77</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>77</v>
@@ -7766,7 +7774,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7775,16 +7783,16 @@
         <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>375</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
@@ -7793,15 +7801,15 @@
         <v>77</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7824,16 +7832,16 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7883,7 +7891,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7892,16 +7900,16 @@
         <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -7910,15 +7918,15 @@
         <v>77</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7941,16 +7949,16 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>102</v>
+        <v>382</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8000,7 +8008,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -8009,16 +8017,16 @@
         <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>387</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>191</v>
+        <v>388</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>77</v>
@@ -8027,51 +8035,49 @@
         <v>77</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J50" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="J50" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K50" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
       </c>
@@ -8119,25 +8125,25 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -8151,42 +8157,46 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>245</v>
+        <v>109</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
       </c>
@@ -8234,7 +8244,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8246,30 +8256,30 @@
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>402</v>
+        <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>403</v>
+        <v>193</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>404</v>
+        <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>405</v>
+        <v>77</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>406</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8277,7 +8287,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>88</v>
@@ -8289,16 +8299,16 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>102</v>
+        <v>247</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>103</v>
+        <v>402</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>104</v>
+        <v>403</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8349,53 +8359,53 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>105</v>
+        <v>401</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>106</v>
+        <v>405</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>77</v>
+        <v>406</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>77</v>
+        <v>407</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>77</v>
+        <v>408</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
@@ -8407,17 +8417,15 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -8454,37 +8462,37 @@
         <v>77</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -8498,46 +8506,44 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>258</v>
+        <v>110</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>259</v>
+        <v>111</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8561,49 +8567,49 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>265</v>
+        <v>116</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>266</v>
+        <v>193</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -8612,15 +8618,15 @@
         <v>77</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8637,25 +8643,25 @@
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8680,13 +8686,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>150</v>
+        <v>264</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -8704,7 +8710,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8713,7 +8719,7 @@
         <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>100</v>
@@ -8722,7 +8728,7 @@
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8731,15 +8737,15 @@
         <v>77</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>277</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8747,7 +8753,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>88</v>
@@ -8762,19 +8768,19 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>130</v>
+        <v>271</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>351</v>
+        <v>272</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>352</v>
+        <v>273</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>353</v>
+        <v>274</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>354</v>
+        <v>275</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8787,7 +8793,7 @@
         <v>77</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>77</v>
@@ -8799,13 +8805,13 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
@@ -8823,7 +8829,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>356</v>
+        <v>278</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8832,7 +8838,7 @@
         <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>100</v>
@@ -8841,7 +8847,7 @@
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>357</v>
+        <v>268</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -8850,15 +8856,15 @@
         <v>77</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>358</v>
+        <v>279</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8881,18 +8887,20 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8904,7 +8912,7 @@
         <v>77</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="U57" t="s" s="2">
         <v>77</v>
@@ -8940,7 +8948,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8949,7 +8957,7 @@
         <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>100</v>
@@ -8958,7 +8966,7 @@
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8967,15 +8975,15 @@
         <v>77</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8983,7 +8991,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>88</v>
@@ -8998,16 +9006,16 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>370</v>
+        <v>102</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9021,7 +9029,7 @@
         <v>77</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>77</v>
@@ -9057,7 +9065,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -9066,16 +9074,16 @@
         <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>375</v>
+        <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -9084,15 +9092,15 @@
         <v>77</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9115,16 +9123,16 @@
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9174,7 +9182,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9183,16 +9191,16 @@
         <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
@@ -9201,15 +9209,15 @@
         <v>77</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9217,7 +9225,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>88</v>
@@ -9226,22 +9234,22 @@
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>168</v>
+        <v>382</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9267,13 +9275,13 @@
         <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>419</v>
+        <v>77</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>420</v>
+        <v>77</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>77</v>
@@ -9291,42 +9299,42 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>100</v>
+        <v>387</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>421</v>
+        <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>423</v>
+        <v>77</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>424</v>
+        <v>77</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>425</v>
+        <v>389</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9334,7 +9342,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>88</v>
@@ -9343,21 +9351,23 @@
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -9382,11 +9392,13 @@
         <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="Y61" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="Z61" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>77</v>
@@ -9404,10 +9416,10 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>88</v>
@@ -9419,27 +9431,27 @@
         <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>77</v>
+        <v>423</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>106</v>
+        <v>424</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>77</v>
+        <v>425</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>77</v>
+        <v>426</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>77</v>
+        <v>427</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9450,7 +9462,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>77</v>
@@ -9462,13 +9474,13 @@
         <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9495,11 +9507,11 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
@@ -9517,13 +9529,13 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>77</v>
@@ -9535,10 +9547,10 @@
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>434</v>
+        <v>106</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>435</v>
+        <v>77</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -9549,10 +9561,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9575,17 +9587,15 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -9610,11 +9620,11 @@
         <v>77</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>77</v>
@@ -9632,7 +9642,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9647,13 +9657,13 @@
         <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>441</v>
+        <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>77</v>
+        <v>437</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9664,10 +9674,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9690,15 +9700,17 @@
         <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>77</v>
@@ -9723,11 +9735,11 @@
         <v>77</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>262</v>
+        <v>160</v>
       </c>
       <c r="Y64" s="2"/>
       <c r="Z64" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>77</v>
@@ -9745,7 +9757,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9760,16 +9772,16 @@
         <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>77</v>
+        <v>443</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>447</v>
+        <v>77</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>77</v>
@@ -9777,10 +9789,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9791,7 +9803,7 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
@@ -9803,13 +9815,13 @@
         <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9836,11 +9848,11 @@
         <v>77</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>172</v>
+        <v>264</v>
       </c>
       <c r="Y65" s="2"/>
       <c r="Z65" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>77</v>
@@ -9858,13 +9870,13 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>77</v>
@@ -9876,24 +9888,24 @@
         <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>453</v>
+        <v>77</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>454</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9904,7 +9916,7 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>77</v>
@@ -9916,13 +9928,13 @@
         <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9949,13 +9961,11 @@
         <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>77</v>
@@ -9973,13 +9983,13 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>77</v>
@@ -9988,27 +9998,27 @@
         <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>460</v>
+        <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>77</v>
+        <v>455</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10028,16 +10038,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>464</v>
+        <v>271</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10064,13 +10074,13 @@
         <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>77</v>
+        <v>460</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>77</v>
+        <v>461</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>77</v>
@@ -10088,7 +10098,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10103,10 +10113,10 @@
         <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
@@ -10115,15 +10125,15 @@
         <v>77</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>77</v>
+        <v>464</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10134,7 +10144,7 @@
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>77</v>
@@ -10146,17 +10156,15 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -10205,13 +10213,13 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>77</v>
@@ -10220,27 +10228,27 @@
         <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>476</v>
+        <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>447</v>
+        <v>77</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>477</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10263,15 +10271,17 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>102</v>
+        <v>472</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
@@ -10320,7 +10330,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10335,27 +10345,27 @@
         <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>77</v>
+        <v>476</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10366,7 +10376,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>77</v>
@@ -10378,13 +10388,13 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>485</v>
+        <v>102</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10435,13 +10445,13 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>77</v>
@@ -10450,27 +10460,27 @@
         <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>488</v>
+        <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>491</v>
+        <v>77</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>77</v>
+        <v>485</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10478,10 +10488,10 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>77</v>
@@ -10490,16 +10500,16 @@
         <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>124</v>
+        <v>487</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10550,13 +10560,13 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>77</v>
@@ -10565,27 +10575,27 @@
         <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>499</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10611,10 +10621,10 @@
         <v>124</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10665,7 +10675,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10680,27 +10690,27 @@
         <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10708,7 +10718,7 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>88</v>
@@ -10720,16 +10730,16 @@
         <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>508</v>
+        <v>124</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10780,7 +10790,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10795,27 +10805,27 @@
         <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>77</v>
+        <v>507</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>77</v>
+        <v>508</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10826,7 +10836,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>77</v>
@@ -10838,13 +10848,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10895,13 +10905,13 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>77</v>
@@ -10910,13 +10920,13 @@
         <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>77</v>
+        <v>497</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>77</v>
+        <v>514</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>77</v>
@@ -10927,10 +10937,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10941,7 +10951,7 @@
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>77</v>
@@ -10953,17 +10963,15 @@
         <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>522</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -11012,13 +11020,13 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>77</v>
@@ -11027,13 +11035,13 @@
         <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>523</v>
+        <v>77</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>525</v>
+        <v>77</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -11044,10 +11052,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11070,16 +11078,16 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>102</v>
+        <v>521</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11129,7 +11137,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11144,27 +11152,27 @@
         <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>483</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11190,12 +11198,14 @@
         <v>102</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>530</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>531</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>77</v>
@@ -11244,7 +11254,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11259,38 +11269,38 @@
         <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>77</v>
+        <v>532</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>538</v>
+        <v>77</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>77</v>
@@ -11302,13 +11312,13 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>539</v>
+        <v>102</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11359,13 +11369,13 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>77</v>
@@ -11374,35 +11384,35 @@
         <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>542</v>
+        <v>77</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>77</v>
+        <v>538</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>77</v>
+        <v>485</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>77</v>
+        <v>540</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>79</v>
@@ -11417,13 +11427,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11474,10 +11484,10 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>79</v>
@@ -11486,30 +11496,30 @@
         <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>548</v>
+        <v>100</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>551</v>
+        <v>77</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>552</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11517,10 +11527,10 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>77</v>
@@ -11532,13 +11542,13 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>102</v>
+        <v>547</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>103</v>
+        <v>548</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>104</v>
+        <v>549</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11589,53 +11599,53 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>105</v>
+        <v>546</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>77</v>
+        <v>550</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>77</v>
+        <v>551</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>106</v>
+        <v>552</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>77</v>
+        <v>553</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>77</v>
+        <v>554</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>77</v>
@@ -11647,17 +11657,15 @@
         <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -11706,19 +11714,19 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>77</v>
@@ -11738,14 +11746,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>556</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11758,26 +11766,24 @@
         <v>77</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
         <v>109</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>557</v>
+        <v>110</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>558</v>
+        <v>111</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="O82" t="s" s="2">
-        <v>397</v>
-      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>77</v>
       </c>
@@ -11825,7 +11831,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>559</v>
+        <v>116</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11843,7 +11849,7 @@
         <v>77</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>77</v>
@@ -11857,14 +11863,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>77</v>
+        <v>558</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11877,24 +11883,26 @@
         <v>77</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>269</v>
+        <v>109</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
       </c>
@@ -11918,13 +11926,13 @@
         <v>77</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>564</v>
+        <v>77</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>565</v>
+        <v>77</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>77</v>
@@ -11942,7 +11950,7 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11954,30 +11962,30 @@
         <v>77</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>566</v>
+        <v>193</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>567</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11988,7 +11996,7 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>77</v>
@@ -12000,15 +12008,17 @@
         <v>89</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>569</v>
+        <v>271</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>564</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>565</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>77</v>
@@ -12033,13 +12043,13 @@
         <v>77</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>77</v>
+        <v>566</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>77</v>
+        <v>567</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>77</v>
@@ -12057,13 +12067,13 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>77</v>
@@ -12075,24 +12085,24 @@
         <v>77</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>573</v>
+        <v>106</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>574</v>
+        <v>77</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12112,16 +12122,16 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>102</v>
+        <v>571</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>103</v>
+        <v>572</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>104</v>
+        <v>573</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12172,7 +12182,7 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>105</v>
+        <v>570</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12184,41 +12194,41 @@
         <v>77</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>106</v>
+        <v>574</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>77</v>
+        <v>575</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>77</v>
+        <v>576</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>77</v>
+        <v>577</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>77</v>
@@ -12230,17 +12240,15 @@
         <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>77</v>
@@ -12277,37 +12285,37 @@
         <v>77</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>77</v>
@@ -12321,21 +12329,21 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>77</v>
@@ -12344,19 +12352,19 @@
         <v>77</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>231</v>
+        <v>111</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>232</v>
+        <v>112</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12394,37 +12402,37 @@
         <v>77</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>233</v>
+        <v>116</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>77</v>
@@ -12438,10 +12446,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12464,16 +12472,16 @@
         <v>89</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12499,13 +12507,13 @@
         <v>77</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>77</v>
@@ -12523,7 +12531,7 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12532,7 +12540,7 @@
         <v>88</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>100</v>
@@ -12541,7 +12549,7 @@
         <v>77</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>77</v>
@@ -12555,10 +12563,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12581,16 +12589,16 @@
         <v>89</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>245</v>
+        <v>130</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12616,13 +12624,13 @@
         <v>77</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>77</v>
@@ -12640,7 +12648,7 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12649,7 +12657,7 @@
         <v>88</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>100</v>
@@ -12658,7 +12666,7 @@
         <v>77</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>77</v>
@@ -12667,15 +12675,15 @@
         <v>77</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12695,18 +12703,20 @@
         <v>77</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>102</v>
+        <v>247</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>103</v>
+        <v>248</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -12755,7 +12765,7 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>105</v>
+        <v>251</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -12764,16 +12774,16 @@
         <v>88</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>106</v>
+        <v>252</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>77</v>
@@ -12782,26 +12792,26 @@
         <v>77</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>77</v>
@@ -12813,17 +12823,15 @@
         <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>77</v>
@@ -12860,37 +12868,37 @@
         <v>77</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AC91" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AD91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>77</v>
@@ -12904,46 +12912,44 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>258</v>
+        <v>110</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>259</v>
+        <v>111</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>77</v>
       </c>
@@ -12967,49 +12973,49 @@
         <v>77</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AD92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>265</v>
+        <v>116</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>266</v>
+        <v>193</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>77</v>
@@ -13018,15 +13024,15 @@
         <v>77</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13034,7 +13040,7 @@
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>88</v>
@@ -13043,25 +13049,25 @@
         <v>77</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J93" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -13086,13 +13092,13 @@
         <v>77</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>150</v>
+        <v>264</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>77</v>
@@ -13110,7 +13116,7 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -13119,7 +13125,7 @@
         <v>88</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>100</v>
@@ -13128,7 +13134,7 @@
         <v>77</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>77</v>
@@ -13137,15 +13143,15 @@
         <v>77</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>277</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13153,7 +13159,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>88</v>
@@ -13165,19 +13171,23 @@
         <v>77</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>102</v>
+        <v>271</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>103</v>
+        <v>272</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>77</v>
       </c>
@@ -13201,13 +13211,13 @@
         <v>77</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>77</v>
@@ -13225,7 +13235,7 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>105</v>
+        <v>278</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13234,16 +13244,16 @@
         <v>88</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>106</v>
+        <v>268</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>77</v>
@@ -13252,26 +13262,26 @@
         <v>77</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>77</v>
@@ -13283,17 +13293,15 @@
         <v>77</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -13330,37 +13338,37 @@
         <v>77</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AC95" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AD95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>77</v>
@@ -13374,21 +13382,21 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>77</v>
@@ -13397,23 +13405,21 @@
         <v>77</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>284</v>
+        <v>110</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>285</v>
+        <v>111</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>77</v>
       </c>
@@ -13422,7 +13428,7 @@
         <v>77</v>
       </c>
       <c r="S96" t="s" s="2">
-        <v>588</v>
+        <v>77</v>
       </c>
       <c r="T96" t="s" s="2">
         <v>77</v>
@@ -13449,19 +13455,19 @@
         <v>77</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AC96" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AD96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>288</v>
+        <v>116</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -13470,16 +13476,16 @@
         <v>79</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>289</v>
+        <v>193</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>77</v>
@@ -13488,7 +13494,7 @@
         <v>77</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97">
@@ -13504,7 +13510,7 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>88</v>
@@ -13519,19 +13525,19 @@
         <v>89</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>342</v>
+        <v>286</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>343</v>
+        <v>287</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>344</v>
+        <v>288</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>77</v>
@@ -13541,7 +13547,7 @@
         <v>77</v>
       </c>
       <c r="S97" t="s" s="2">
-        <v>77</v>
+        <v>590</v>
       </c>
       <c r="T97" t="s" s="2">
         <v>77</v>
@@ -13580,16 +13586,16 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>100</v>
@@ -13598,7 +13604,7 @@
         <v>77</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>347</v>
+        <v>291</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>77</v>
@@ -13607,15 +13613,15 @@
         <v>77</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>348</v>
+        <v>292</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13623,7 +13629,7 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>88</v>
@@ -13638,19 +13644,19 @@
         <v>89</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -13660,10 +13666,10 @@
         <v>77</v>
       </c>
       <c r="S98" t="s" s="2">
-        <v>591</v>
+        <v>77</v>
       </c>
       <c r="T98" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="U98" t="s" s="2">
         <v>77</v>
@@ -13699,7 +13705,7 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -13708,7 +13714,7 @@
         <v>88</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>100</v>
@@ -13717,7 +13723,7 @@
         <v>77</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>77</v>
@@ -13726,7 +13732,7 @@
         <v>77</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="99">
@@ -13757,18 +13763,20 @@
         <v>89</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O99" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="P99" t="s" s="2">
         <v>77</v>
       </c>
@@ -13777,10 +13785,10 @@
         <v>77</v>
       </c>
       <c r="S99" t="s" s="2">
-        <v>77</v>
+        <v>593</v>
       </c>
       <c r="T99" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="U99" t="s" s="2">
         <v>77</v>
@@ -13816,7 +13824,7 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -13825,7 +13833,7 @@
         <v>88</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>100</v>
@@ -13834,7 +13842,7 @@
         <v>77</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>77</v>
@@ -13843,15 +13851,15 @@
         <v>77</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13859,7 +13867,7 @@
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>88</v>
@@ -13874,16 +13882,16 @@
         <v>89</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>370</v>
+        <v>102</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -13897,7 +13905,7 @@
         <v>77</v>
       </c>
       <c r="T100" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="U100" t="s" s="2">
         <v>77</v>
@@ -13933,7 +13941,7 @@
         <v>77</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -13942,16 +13950,16 @@
         <v>88</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>375</v>
+        <v>100</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>77</v>
@@ -13960,15 +13968,15 @@
         <v>77</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13991,16 +13999,16 @@
         <v>89</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14050,7 +14058,7 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -14059,16 +14067,16 @@
         <v>88</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>77</v>
@@ -14077,15 +14085,15 @@
         <v>77</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14108,16 +14116,16 @@
         <v>89</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>102</v>
+        <v>382</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14167,7 +14175,7 @@
         <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -14176,16 +14184,16 @@
         <v>88</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>100</v>
+        <v>387</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>191</v>
+        <v>388</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>77</v>
@@ -14194,15 +14202,15 @@
         <v>77</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14225,15 +14233,17 @@
         <v>89</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>597</v>
+        <v>392</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N103" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -14258,13 +14268,13 @@
         <v>77</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>599</v>
+        <v>77</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>600</v>
+        <v>77</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>77</v>
@@ -14282,7 +14292,7 @@
         <v>77</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>596</v>
+        <v>395</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -14291,7 +14301,7 @@
         <v>88</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>100</v>
@@ -14300,10 +14310,10 @@
         <v>77</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>601</v>
+        <v>193</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>602</v>
+        <v>77</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>77</v>
@@ -14314,10 +14324,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14325,7 +14335,7 @@
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>88</v>
@@ -14340,13 +14350,13 @@
         <v>89</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14358,7 +14368,7 @@
         <v>77</v>
       </c>
       <c r="S104" t="s" s="2">
-        <v>606</v>
+        <v>77</v>
       </c>
       <c r="T104" t="s" s="2">
         <v>77</v>
@@ -14373,13 +14383,13 @@
         <v>77</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>77</v>
@@ -14397,10 +14407,10 @@
         <v>77</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>88</v>
@@ -14415,24 +14425,24 @@
         <v>77</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>611</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14440,7 +14450,7 @@
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>88</v>
@@ -14452,16 +14462,16 @@
         <v>77</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>370</v>
+        <v>170</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14473,7 +14483,7 @@
         <v>77</v>
       </c>
       <c r="S105" t="s" s="2">
-        <v>77</v>
+        <v>608</v>
       </c>
       <c r="T105" t="s" s="2">
         <v>77</v>
@@ -14488,13 +14498,13 @@
         <v>77</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>77</v>
+        <v>609</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>77</v>
+        <v>610</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>77</v>
@@ -14512,10 +14522,10 @@
         <v>77</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>88</v>
@@ -14530,24 +14540,24 @@
         <v>77</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>106</v>
+        <v>611</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>77</v>
+        <v>612</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>77</v>
+        <v>613</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14558,7 +14568,7 @@
         <v>78</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>77</v>
@@ -14570,17 +14580,15 @@
         <v>77</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="M106" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>618</v>
-      </c>
+      <c r="N106" s="2"/>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>77</v>
@@ -14629,13 +14637,13 @@
         <v>77</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>77</v>
@@ -14644,19 +14652,136 @@
         <v>100</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>495</v>
+        <v>77</v>
       </c>
       <c r="AL106" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="AM106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO106" t="s" s="2">
+      <c r="N107" t="s" s="2">
         <v>620</v>
+      </c>
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO107" t="s" s="2">
+        <v>622</v>
       </c>
     </row>
   </sheetData>

--- a/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T10:20:10+00:00</t>
+    <t>2025-02-04T12:30:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T12:30:23+00:00</t>
+    <t>2025-02-04T12:59:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil de Appointment, dérivé de FrAppointment, pour le cas d'usage prise de RDV de la plateforme SAS - Commun cas d'usage PS Indiv et CPTS</t>
+    <t>Profil de Appointment, dérivé de FrAppointment, pour le cas d'usage prise de RDV de la plateforme SAS [Commun cas d'usage PS Indiv et CPTS]</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T12:59:01+00:00</t>
+    <t>2025-02-04T15:23:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T15:23:22+00:00</t>
+    <t>2025-02-04T16:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T16:00:41+00:00</t>
+    <t>2025-02-05T17:09:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T17:09:50+00:00</t>
+    <t>2025-02-06T08:29:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T08:29:34+00:00</t>
+    <t>2025-02-06T09:04:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:04:57+00:00</t>
+    <t>2025-02-06T09:17:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:17:57+00:00</t>
+    <t>2025-02-06T09:34:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:34:11+00:00</t>
+    <t>2025-02-06T09:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:41:46+00:00</t>
+    <t>2025-02-06T10:00:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T10:00:10+00:00</t>
+    <t>2025-02-06T13:19:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T13:19:14+00:00</t>
+    <t>2025-02-06T13:39:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T13:39:47+00:00</t>
+    <t>2025-02-06T14:18:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T14:18:01+00:00</t>
+    <t>2025-02-06T14:37:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T14:37:01+00:00</t>
+    <t>2025-02-10T09:11:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T09:11:56+00:00</t>
+    <t>2025-02-10T10:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T10:48:04+00:00</t>
+    <t>2025-03-12T10:37:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T10:37:36+00:00</t>
+    <t>2025-03-12T11:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T11:02:50+00:00</t>
+    <t>2025-03-13T08:22:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
